--- a/Plan to use MBO.xlsx
+++ b/Plan to use MBO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Budget</t>
   </si>
@@ -110,9 +110,6 @@
     <t>GMK Grìseann</t>
   </si>
   <si>
-    <t>JTK White on Black</t>
-  </si>
-  <si>
     <t>Keyreative - Klingon PBT Keyset (Glow in the Dark)</t>
   </si>
   <si>
@@ -135,6 +132,48 @@
   </si>
   <si>
     <t>ELECOM M-HT1URBK Wired Trackball Mouse</t>
+  </si>
+  <si>
+    <t>Wrist Rest (from Vietnam)</t>
+  </si>
+  <si>
+    <t>Chair + monitor stand</t>
+  </si>
+  <si>
+    <t>Memory card</t>
+  </si>
+  <si>
+    <t>HDD External</t>
+  </si>
+  <si>
+    <t>CD/DVD External</t>
+  </si>
+  <si>
+    <t>Balô</t>
+  </si>
+  <si>
+    <t>Whey</t>
+  </si>
+  <si>
+    <t>Vitamin</t>
+  </si>
+  <si>
+    <t>BCAA</t>
+  </si>
+  <si>
+    <t>Nhổ răng</t>
+  </si>
+  <si>
+    <t>JTK White on Black (Full, Base + Mod)</t>
+  </si>
+  <si>
+    <t>JTK Red on White (Full, Base + Mod)</t>
+  </si>
+  <si>
+    <t>JTK Red on Black (Base)</t>
+  </si>
+  <si>
+    <t>Keyreative Gradient PBT Keyset - Ocean</t>
   </si>
 </sst>
 </file>
@@ -465,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +536,7 @@
       </c>
       <c r="B2" s="2">
         <f>SUMIF(D:D,$D$4,H:H)</f>
-        <v>12300000</v>
+        <v>11750000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -506,7 +545,7 @@
       </c>
       <c r="B3" s="2">
         <f>B1-B2</f>
-        <v>1700000</v>
+        <v>2250000</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -556,14 +595,14 @@
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2">
-        <v>2650000</v>
+        <v>2000000</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H31" si="0">IF(F6=0,G6,F6*25000)</f>
-        <v>2650000</v>
+        <f>IF(F6=0,G6,F6*25000)</f>
+        <v>2000000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -571,14 +610,14 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2">
-        <v>450000</v>
+        <v>1700000</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>450000</v>
+        <f>IF(F7=0,G7,F7*25000)</f>
+        <v>1700000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -586,14 +625,14 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>2150000</v>
+        <v>2650000</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>2150000</v>
+        <f t="shared" ref="H8:H44" si="0">IF(F8=0,G8,F8*25000)</f>
+        <v>2650000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -601,285 +640,447 @@
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
-        <v>700000</v>
+        <v>450000</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>700000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2">
+        <v>2150000</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2">
+        <v>700000</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2">
         <v>1700000</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G13" s="2">
         <v>1000000</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3">
-        <v>22</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>550000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3">
-        <v>38.9</v>
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3000000</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>972500</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
-        <v>89</v>
+        <v>36</v>
+      </c>
+      <c r="G15" s="2">
+        <v>400000</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>2225000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3">
-        <v>89</v>
+        <v>38</v>
+      </c>
+      <c r="G16" s="2">
+        <v>600000</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>2225000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3">
-        <v>89</v>
+        <v>39</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4100000</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="0"/>
-        <v>2225000</v>
+        <v>4100000</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="G18" s="2">
+        <v>750000</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="3">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="G19" s="2">
+        <v>500000</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="0"/>
-        <v>875000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3">
-        <v>150</v>
+        <v>42</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1350000</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
-        <v>3750000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
+        <v>43</v>
+      </c>
+      <c r="G21" s="2">
+        <v>850000</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="0"/>
-        <v>2500000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="G22" s="2">
+        <v>750000</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="0"/>
-        <v>2500000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F23" s="3">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="0"/>
-        <v>1625000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3">
-        <v>70</v>
+        <v>38.9</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="0"/>
-        <v>1750000</v>
+        <v>972500</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="0"/>
-        <v>4975000</v>
+        <v>2225000</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F26" s="3">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="0"/>
-        <v>4375000</v>
+        <v>2225000</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F27" s="3">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="0"/>
-        <v>1975000</v>
+        <v>2225000</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F28" s="3">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="0"/>
-        <v>2125000</v>
+        <v>1575000</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F29" s="3">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="0"/>
-        <v>2350000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F30" s="3">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="0"/>
-        <v>1950000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="3">
+        <v>100</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="3">
+        <v>65</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="3">
+        <v>70</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="0"/>
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="3">
+        <v>199</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="0"/>
+        <v>4975000</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="3">
+        <v>175</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="0"/>
+        <v>4375000</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="3">
+        <v>79</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="0"/>
+        <v>1975000</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="3">
+        <v>105</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="0"/>
+        <v>2625000</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="3">
+        <v>72</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="3">
+        <v>52</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="0"/>
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F41" s="3">
+        <v>85</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="0"/>
+        <v>2125000</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="3">
+        <v>94</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="0"/>
+        <v>2350000</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="3">
+        <v>78</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="0"/>
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="3">
         <v>88</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H44" s="2">
         <f t="shared" si="0"/>
         <v>2200000</v>
       </c>

--- a/Plan to use MBO.xlsx
+++ b/Plan to use MBO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Budget</t>
   </si>
@@ -507,7 +507,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +536,7 @@
       </c>
       <c r="B2" s="2">
         <f>SUMIF(D:D,$D$4,H:H)</f>
-        <v>11750000</v>
+        <v>10150000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" s="2">
         <f>B1-B2</f>
-        <v>2250000</v>
+        <v>3850000</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -792,9 +792,6 @@
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
@@ -807,9 +804,6 @@
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E22" s="1" t="s">
         <v>44</v>
       </c>

--- a/Plan to use MBO.xlsx
+++ b/Plan to use MBO.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\96_Personal_Items\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -284,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,7 +502,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +531,7 @@
       </c>
       <c r="B2" s="2">
         <f>SUMIF(D:D,$D$4,H:H)</f>
-        <v>10150000</v>
+        <v>10030000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -545,7 +540,7 @@
       </c>
       <c r="B3" s="2">
         <f>B1-B2</f>
-        <v>3850000</v>
+        <v>3970000</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -784,11 +779,11 @@
         <v>42</v>
       </c>
       <c r="G20" s="2">
-        <v>1350000</v>
+        <v>1230000</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
-        <v>1350000</v>
+        <v>1230000</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">

--- a/Plan to use MBO.xlsx
+++ b/Plan to use MBO.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\96_Personal_Items\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Budget</t>
   </si>
@@ -169,6 +174,9 @@
   </si>
   <si>
     <t>Keyreative Gradient PBT Keyset - Ocean</t>
+  </si>
+  <si>
+    <t>Hogmead vilage tour</t>
   </si>
 </sst>
 </file>
@@ -279,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,7 +499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -499,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,8 +538,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="2">
-        <f>SUMIF(D:D,$D$4,H:H)</f>
-        <v>10030000</v>
+        <f>SUMIF(D:D,$D$2,H:H)</f>
+        <v>6070000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -540,7 +551,7 @@
       </c>
       <c r="B3" s="2">
         <f>B1-B2</f>
-        <v>3970000</v>
+        <v>7930000</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -559,9 +570,6 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
@@ -586,9 +594,6 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
@@ -601,9 +606,6 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
@@ -623,11 +625,11 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>2650000</v>
+        <v>2600000</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" ref="H8:H44" si="0">IF(F8=0,G8,F8*25000)</f>
-        <v>2650000</v>
+        <f t="shared" ref="H8:H45" si="0">IF(F8=0,G8,F8*25000)</f>
+        <v>2600000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,139 +718,142 @@
         <v>36</v>
       </c>
       <c r="G15" s="2">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>400000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G16" s="2">
-        <v>600000</v>
+        <v>350000</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>600000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2">
-        <v>4100000</v>
+        <v>600000</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="0"/>
-        <v>4100000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2">
-        <v>750000</v>
+        <v>4100000</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="0"/>
-        <v>750000</v>
+        <v>4100000</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2">
+        <v>750000</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <v>500000</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H20" s="2">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="2">
-        <v>1230000</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="0"/>
-        <v>1230000</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G21" s="2">
-        <v>850000</v>
+        <v>1350000</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="0"/>
-        <v>850000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="2">
-        <v>750000</v>
+        <v>850000</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="0"/>
-        <v>750000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="G23" s="2">
+        <v>750000</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="0"/>
-        <v>550000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="3">
-        <v>38.9</v>
+        <v>22</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="0"/>
-        <v>972500</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="3">
-        <v>89</v>
+        <v>38.9</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="0"/>
-        <v>2225000</v>
+        <v>972500</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3">
         <v>89</v>
@@ -860,7 +865,7 @@
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="3">
         <v>89</v>
@@ -872,55 +877,55 @@
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="3">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>2225000</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="3">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="0"/>
-        <v>875000</v>
+        <v>1575000</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="3">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="0"/>
-        <v>3750000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="0"/>
-        <v>2500000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -932,144 +937,156 @@
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F33" s="3">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="0"/>
-        <v>1625000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F34" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="0"/>
-        <v>1750000</v>
+        <v>1625000</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F35" s="3">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="0"/>
-        <v>4975000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" s="3">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="0"/>
-        <v>4375000</v>
+        <v>4975000</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F37" s="3">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="0"/>
-        <v>1975000</v>
+        <v>4375000</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38" s="3">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="0"/>
-        <v>2625000</v>
+        <v>1975000</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" s="3">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="0"/>
-        <v>1800000</v>
+        <v>2625000</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="3">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F41" s="3">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="0"/>
-        <v>2125000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F42" s="3">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="0"/>
-        <v>2350000</v>
+        <v>2125000</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F43" s="3">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="0"/>
-        <v>1950000</v>
+        <v>2350000</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="3">
+        <v>78</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="0"/>
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="3">
         <v>88</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H45" s="2">
         <f t="shared" si="0"/>
         <v>2200000</v>
       </c>

--- a/Plan to use MBO.xlsx
+++ b/Plan to use MBO.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\96_Personal_Items\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$4:$H$46</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Budget</t>
   </si>
@@ -32,9 +30,6 @@
     <t>Cherry G80</t>
   </si>
   <si>
-    <t>Cover Cherry G80</t>
-  </si>
-  <si>
     <t>Watch band</t>
   </si>
   <si>
@@ -177,6 +172,12 @@
   </si>
   <si>
     <t>Hogmead vilage tour</t>
+  </si>
+  <si>
+    <t>Buy check</t>
+  </si>
+  <si>
+    <t>Clothes</t>
   </si>
 </sst>
 </file>
@@ -287,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,17 +508,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -535,337 +537,330 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2">
-        <f>SUMIF(D:D,$D$2,H:H)</f>
-        <v>6070000</v>
+        <f>SUMIF(D:D,$E$2,H:H)</f>
+        <v>7120000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <f>B1-B2</f>
-        <v>7930000</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>6880000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2">
-        <v>600000</v>
-      </c>
-      <c r="H4" s="2">
-        <f>IF(F4=0,G4,F4*25000)</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>2000000</v>
+        <v>2600000</v>
       </c>
       <c r="H5" s="2">
-        <f>IF(F5=0,G5,F5*25000)</f>
-        <v>2000000</v>
+        <f t="shared" ref="H5:H46" si="0">IF(F5=0,G5,F5*25000)</f>
+        <v>2600000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(F6=0,G6,F6*25000)</f>
-        <v>2000000</v>
+        <f t="shared" si="0"/>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2">
-        <v>1700000</v>
+        <v>320000</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(F7=0,G7,F7*25000)</f>
-        <v>1700000</v>
+        <f t="shared" si="0"/>
+        <v>320000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2">
-        <v>2600000</v>
+        <v>350000</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" ref="H8:H45" si="0">IF(F8=0,G8,F8*25000)</f>
-        <v>2600000</v>
+        <f t="shared" si="0"/>
+        <v>350000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
-        <v>450000</v>
+        <v>1350000</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>450000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2">
-        <v>2150000</v>
+        <v>1500000</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>2150000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2">
-        <v>700000</v>
+        <v>600000</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>700000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2">
-        <v>1700000</v>
+        <v>2000000</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>1700000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2150000</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2">
+        <v>700000</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
         <v>3000000</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="2">
-        <v>320000</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="2">
-        <v>350000</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2">
+        <v>600000</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="2">
-        <v>600000</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="0"/>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="1" t="s">
+      <c r="G20" s="2">
+        <v>4100000</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
+        <v>4100000</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="2">
-        <v>4100000</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="0"/>
-        <v>4100000</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="1" t="s">
+      <c r="G21" s="2">
+        <v>750000</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G22" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="2">
+        <v>850000</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="2">
         <v>750000</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H24" s="2">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="2">
-        <v>500000</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1350000</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="0"/>
-        <v>1350000</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="2">
-        <v>850000</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="0"/>
-        <v>850000</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="2">
-        <v>750000</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="0"/>
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="1" t="s">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3">
+        <v>22</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
-        <v>22</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="0"/>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="1" t="s">
+      <c r="F26" s="3">
+        <v>38.9</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="0"/>
+        <v>972500</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F25" s="3">
-        <v>38.9</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="0"/>
-        <v>972500</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3">
-        <v>89</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="0"/>
-        <v>2225000</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F27" s="3">
         <v>89</v>
@@ -875,9 +870,9 @@
         <v>2225000</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3">
         <v>89</v>
@@ -887,57 +882,57 @@
         <v>2225000</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3">
+        <v>89</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="0"/>
+        <v>2225000</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3">
+        <v>63</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="0"/>
+        <v>1575000</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="3">
-        <v>63</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="1" t="s">
+      <c r="F31" s="3">
+        <v>35</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="0"/>
+        <v>875000</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="3">
-        <v>35</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="0"/>
-        <v>875000</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="F32" s="3">
         <v>150</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H32" s="2">
         <f t="shared" si="0"/>
         <v>3750000</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="0"/>
-        <v>2500000</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
@@ -949,149 +944,165 @@
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F34" s="3">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="0"/>
-        <v>1625000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F35" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="0"/>
-        <v>1750000</v>
+        <v>1625000</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F36" s="3">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="0"/>
-        <v>4975000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F37" s="3">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="0"/>
-        <v>4375000</v>
+        <v>4975000</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F38" s="3">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="0"/>
-        <v>1975000</v>
+        <v>4375000</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F39" s="3">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="0"/>
-        <v>2625000</v>
+        <v>1975000</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F40" s="3">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>1800000</v>
+        <v>2625000</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F41" s="3">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="0"/>
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F42" s="3">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="0"/>
-        <v>2125000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F43" s="3">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="0"/>
-        <v>2350000</v>
+        <v>2125000</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F44" s="3">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="0"/>
-        <v>1950000</v>
+        <v>2350000</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E45" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F45" s="3">
+        <v>78</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="0"/>
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="3">
         <v>88</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H46" s="2">
         <f t="shared" si="0"/>
         <v>2200000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D4:H46"/>
+  <sortState ref="D5:H46">
+    <sortCondition ref="D5:D46"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
